--- a/docs/pruebas .xlsx
+++ b/docs/pruebas .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57310\Documents\Trabajo prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57310\Documents\GitHub\Proyecto_prueba\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA370AD-C435-461C-8FF9-874C84422CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C14C9F4-933A-4B53-A86A-B53430D82B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{525FCF03-7052-4643-81A1-7E1E4B3DC485}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t xml:space="preserve">pasos </t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t xml:space="preserve">la pagina debe mostrar una alerta o confirmacion donde espcifique el estado de la compra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatizacion  </t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,9 +721,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287D35C-7DB9-4DFA-8B76-A970DEF27845}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -716,385 +731,439 @@
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
-    <col min="3" max="10" width="60.5703125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="60.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="K16" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>